--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_precious_metals.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-2.35</v>
+        <v>-0.59</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,70 +615,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.21</v>
+        <v>1.24</v>
       </c>
       <c r="V2">
-        <v>0.2027522935779816</v>
+        <v>0.1024793388429752</v>
       </c>
       <c r="W2">
-        <v>-0.2136363636363637</v>
+        <v>-0.05728155339805825</v>
       </c>
       <c r="X2">
-        <v>0.07116670477843741</v>
+        <v>0.05024160799847834</v>
       </c>
       <c r="Y2">
-        <v>-0.2848030684148011</v>
+        <v>-0.1075231613965366</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.07097358668652705</v>
+        <v>-0.07175453040648792</v>
       </c>
       <c r="AB2">
-        <v>0.07110484291576463</v>
+        <v>0.05021404256626861</v>
       </c>
       <c r="AC2">
-        <v>-0.1420784296022917</v>
+        <v>-0.1219685729727565</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.01541425818882466</v>
+        <v>0.01165071166430416</v>
       </c>
       <c r="AF2">
-        <v>0.01541425818882466</v>
+        <v>0.01165071166430416</v>
       </c>
       <c r="AG2">
-        <v>-2.194585741811175</v>
+        <v>-1.228349288335696</v>
       </c>
       <c r="AH2">
-        <v>0.001412155125240508</v>
+        <v>0.0009619425082234062</v>
       </c>
       <c r="AI2">
-        <v>0.001494293666062723</v>
+        <v>0.001129859029372004</v>
       </c>
       <c r="AJ2">
-        <v>-0.2520943491858321</v>
+        <v>-0.1129864563269852</v>
       </c>
       <c r="AK2">
-        <v>-0.2707555310444503</v>
+        <v>-0.1354052671754974</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.012</v>
+        <v>-0.002</v>
       </c>
       <c r="AN2">
         <v>-0</v>
       </c>
       <c r="AP2">
-        <v>3.585924414724142</v>
+        <v>2.225270449883507</v>
       </c>
       <c r="AQ2">
-        <v>55.16666666666667</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="3">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-2.35</v>
+        <v>-0.59</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -722,70 +722,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.21</v>
+        <v>1.24</v>
       </c>
       <c r="V3">
-        <v>0.2027522935779816</v>
+        <v>0.1024793388429752</v>
       </c>
       <c r="W3">
-        <v>-0.2136363636363637</v>
+        <v>-0.05728155339805825</v>
       </c>
       <c r="X3">
-        <v>0.07116670477843741</v>
+        <v>0.05024160799847834</v>
       </c>
       <c r="Y3">
-        <v>-0.2848030684148011</v>
+        <v>-0.1075231613965366</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.07097358668652705</v>
+        <v>-0.07175453040648792</v>
       </c>
       <c r="AB3">
-        <v>0.07110484291576463</v>
+        <v>0.05021404256626861</v>
       </c>
       <c r="AC3">
-        <v>-0.1420784296022917</v>
+        <v>-0.1219685729727565</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.01541425818882466</v>
+        <v>0.01165071166430416</v>
       </c>
       <c r="AF3">
-        <v>0.01541425818882466</v>
+        <v>0.01165071166430416</v>
       </c>
       <c r="AG3">
-        <v>-2.194585741811175</v>
+        <v>-1.228349288335696</v>
       </c>
       <c r="AH3">
-        <v>0.001412155125240508</v>
+        <v>0.0009619425082234062</v>
       </c>
       <c r="AI3">
-        <v>0.001494293666062723</v>
+        <v>0.001129859029372004</v>
       </c>
       <c r="AJ3">
-        <v>-0.2520943491858321</v>
+        <v>-0.1129864563269852</v>
       </c>
       <c r="AK3">
-        <v>-0.2707555310444503</v>
+        <v>-0.1354052671754974</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.012</v>
+        <v>-0.002</v>
       </c>
       <c r="AN3">
         <v>-0</v>
       </c>
       <c r="AP3">
-        <v>3.585924414724142</v>
+        <v>2.225270449883507</v>
       </c>
       <c r="AQ3">
-        <v>55.16666666666667</v>
+        <v>295.5</v>
       </c>
     </row>
   </sheetData>
